--- a/SEC_FULL_STRUCTURED.xlsx
+++ b/SEC_FULL_STRUCTURED.xlsx
@@ -6205,20 +6205,32 @@
           <t>Cash and cash equivalents, as of the beginning of the period</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>20240930</t>
+          <t>20231231</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>304300000</v>
+      </c>
+      <c r="K39" t="n">
+        <v>304300000</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>304,300,000</t>
+        </is>
+      </c>
       <c r="M39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -6246,20 +6258,32 @@
           <t>Cash and cash equivalents, as of the end of the period</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
           <t>20240930</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>373800000</v>
+      </c>
+      <c r="K40" t="n">
+        <v>373800000</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>373,800,000</t>
+        </is>
+      </c>
       <c r="M40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6373,20 +6397,32 @@
           <t>Beginning balance (in shares)</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>shares</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>20240930</t>
+          <t>20221231</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>62000000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>62000000</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>62,000,000</t>
+        </is>
+      </c>
       <c r="M2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -6414,20 +6450,32 @@
           <t>Beginning balance</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>20240930</t>
+          <t>20221231</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1990700000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1990700000</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1,990,700,000</t>
+        </is>
+      </c>
       <c r="M3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -6614,20 +6662,32 @@
           <t>Issuance (cancellation) of common stock related to share-based payment awards (in shares)</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>shares</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>20240930</t>
+          <t>20240630</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>300000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>300000</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>300,000</t>
+        </is>
+      </c>
       <c r="M7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -6761,20 +6821,32 @@
           <t>Convertible note hedge transactions</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>20240930</t>
+          <t>20230630</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>70500000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-70500000</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>(70,500,000)</t>
+        </is>
+      </c>
       <c r="M10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -6802,20 +6874,32 @@
           <t>Adjustments to Additional Paid in Capital, Warrant Issued</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>20240930</t>
+          <t>20230630</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>40000000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>40000000</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>40,000,000</t>
+        </is>
+      </c>
       <c r="M11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -6843,20 +6927,32 @@
           <t>Ending balance (in shares)</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>shares</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>20240930</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>58100000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>58100000</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>58,100,000</t>
+        </is>
+      </c>
       <c r="M12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -6884,20 +6980,32 @@
           <t>Ending balance</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>20240930</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2051000000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2051000000</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2,051,000,000</t>
+        </is>
+      </c>
       <c r="M13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
